--- a/backend/chds_food_delivery/apps/translations/data/chds translations.xlsx
+++ b/backend/chds_food_delivery/apps/translations/data/chds translations.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$B$998</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="352">
   <si>
     <t>labelcode</t>
   </si>
@@ -363,73 +365,61 @@
     <t>常见问题解答</t>
   </si>
   <si>
+    <t>customer_care</t>
+  </si>
+  <si>
+    <t>Customer Care</t>
+  </si>
+  <si>
+    <t>客户服务</t>
+  </si>
+  <si>
+    <t>our_menu</t>
+  </si>
+  <si>
+    <t>Our Menu</t>
+  </si>
+  <si>
+    <t>我们的菜单</t>
+  </si>
+  <si>
+    <t>fresh_food</t>
+  </si>
+  <si>
+    <t>Fresh Food</t>
+  </si>
+  <si>
+    <t>新鲜食品</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>desserts</t>
+  </si>
+  <si>
+    <t>Desserts</t>
+  </si>
+  <si>
+    <t>甜点</t>
+  </si>
+  <si>
     <t>contact_us</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>联系我们</t>
-  </si>
-  <si>
-    <t>our_menu</t>
-  </si>
-  <si>
-    <t>Our Menu</t>
-  </si>
-  <si>
-    <t>我们的菜单</t>
-  </si>
-  <si>
-    <t>burger_king</t>
-  </si>
-  <si>
-    <t>Burger King</t>
-  </si>
-  <si>
-    <t>汉堡王</t>
-  </si>
-  <si>
-    <t>pizza_king</t>
-  </si>
-  <si>
-    <t>Pizza King</t>
-  </si>
-  <si>
-    <t>披萨王</t>
-  </si>
-  <si>
-    <t>fresh_food</t>
-  </si>
-  <si>
-    <t>Fresh Food</t>
-  </si>
-  <si>
-    <t>新鲜食品</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>desserts</t>
-  </si>
-  <si>
-    <t>Desserts</t>
-  </si>
-  <si>
-    <t>甜点</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Us
 </t>
   </si>
   <si>
+    <t>联系我们</t>
+  </si>
+  <si>
     <t>monday_friday_8am_4pm</t>
   </si>
   <si>
@@ -642,25 +632,22 @@
     <t>每顿饭都是新鲜烹制的，采用优质、健康的食材。不含防腐剂，没有捷径——只有干净、美味的食物，为您的锻炼和恢复提供能量。</t>
   </si>
   <si>
-    <t>hero-section-heading</t>
-  </si>
-  <si>
-    <t>home-page</t>
-  </si>
-  <si>
-    <t>Welcome to Healthly: Your Path to Wellness</t>
-  </si>
-  <si>
-    <t>食在自然，健康随行</t>
-  </si>
-  <si>
-    <t>hero-section-description</t>
-  </si>
-  <si>
-    <t>Explore meals designed to fuel both your body and mind. Nourish yourself with fresh, wholesome, and balanced dishes. Savor the benefits of healthy food that supports your well-being.</t>
-  </si>
-  <si>
-    <t>探索专为补充身体和精神能量而设计的膳食。用新鲜、健康、均衡的菜肴滋养自己。享受有益健康的食品带来的好处，促进您的健康。</t>
+    <t>food_menu</t>
+  </si>
+  <si>
+    <t>Food Menu</t>
+  </si>
+  <si>
+    <t>食物菜单</t>
+  </si>
+  <si>
+    <t>chi_hun_da_su_foods_menu</t>
+  </si>
+  <si>
+    <t>Chi Hun Da Su Foods Menu</t>
+  </si>
+  <si>
+    <t>吃混大苏食品菜单</t>
   </si>
   <si>
     <t>contact-us-heading</t>
@@ -720,6 +707,9 @@
     <t>contact-us-btn</t>
   </si>
   <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
     <t>profile-heading</t>
   </si>
   <si>
@@ -823,13 +813,286 @@
   </si>
   <si>
     <t>返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家
+</t>
+  </si>
+  <si>
+    <t>our_story</t>
+  </si>
+  <si>
+    <t>available_timing</t>
+  </si>
+  <si>
+    <t>Available Timings</t>
+  </si>
+  <si>
+    <t>可用时间</t>
+  </si>
+  <si>
+    <t>monday_wednesday_friday</t>
+  </si>
+  <si>
+    <t>Monday | Wednesday | Friday</t>
+  </si>
+  <si>
+    <t>周一  |  周三  |  星期五</t>
+  </si>
+  <si>
+    <t>enter_first_name</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>输入名字</t>
+  </si>
+  <si>
+    <t>enter_last_name</t>
+  </si>
+  <si>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>输入姓氏</t>
+  </si>
+  <si>
+    <t>our-story-description-1</t>
+  </si>
+  <si>
+    <t>With over 25 years of experience in the fitness industry, we are passionate about creating not just aesthetically pleasing bodies, but sustainable, long-term healthy eating habits. Driven by a love for exploring different flavors, we have dedicated years to developing healthy, delicious recipes that you can enjoy for a lifetime.</t>
+  </si>
+  <si>
+    <t>凭借在健身行业超过 25 年的经验，我们不仅热衷于创造美观的身体，而且热衷于创造可持续、长期的健康饮食习惯。在对探索不同口味的热爱的推动下，我们多年来致力于开发健康、美味的食谱，让您终生享受。</t>
+  </si>
+  <si>
+    <t>our-story-description-2</t>
+  </si>
+  <si>
+    <t>Our mission is simple: to make healthy eating both enjoyable and sustainable. We believe that a balanced, nourishing diet is the foundation of a happy life. With our meals, we aim to bring you joy and vitality, helping you live simply and eat well, while sustaining long-term health and happiness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我们的使命很简单：让健康饮食变得愉快且可持续。我们相信均衡、营养的饮食是幸福生活的基础。我们的目标是通过膳食为您带来欢乐和活力，帮助您生活简单、吃得好，同时保持长期的健康和幸福。</t>
+  </si>
+  <si>
+    <t>delivery_available</t>
+  </si>
+  <si>
+    <t>Delivery Available</t>
+  </si>
+  <si>
+    <t>可送货</t>
+  </si>
+  <si>
+    <t>my_profile</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>我的个人资料</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>注销</t>
+  </si>
+  <si>
+    <t>soy_braised_beef_shank</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>Soy Braised Beef Shank</t>
+  </si>
+  <si>
+    <t>酱香牛腱</t>
+  </si>
+  <si>
+    <t>spiced_braised_chicken_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiced Braised Chicken Leg
+</t>
+  </si>
+  <si>
+    <t>鲜卤鸡腿</t>
+  </si>
+  <si>
+    <t>pickled_veg_chicken_stir_fry</t>
+  </si>
+  <si>
+    <t>Pickled Veg Chicken Stir-fry</t>
+  </si>
+  <si>
+    <t>雪菜笋丝炒鸡胸</t>
+  </si>
+  <si>
+    <t>cilantro_chicken_with_vinegar</t>
+  </si>
+  <si>
+    <t>Cilantro Chicken with Vinegar</t>
+  </si>
+  <si>
+    <t>香菜拌鲜鸡肉</t>
+  </si>
+  <si>
+    <t>chicken_stuffed_bean_curd_rolls</t>
+  </si>
+  <si>
+    <t>Chicken-Stuffed Bean Curd Rolls</t>
+  </si>
+  <si>
+    <t>鸡汁百叶包</t>
+  </si>
+  <si>
+    <t>steamed_egg_with_chicken</t>
+  </si>
+  <si>
+    <t>Steamed Egg with Chicken</t>
+  </si>
+  <si>
+    <t>鲜香肉沫蒸蛋</t>
+  </si>
+  <si>
+    <t>wine_marinated_pig_tongue</t>
+  </si>
+  <si>
+    <t>Wine-Marinated Pig Tongue</t>
+  </si>
+  <si>
+    <t>糟香门腔（猪舌）</t>
+  </si>
+  <si>
+    <t>wine_marinated_chicken_gizzards</t>
+  </si>
+  <si>
+    <t>Wine-Marinated Chicken Gizzards</t>
+  </si>
+  <si>
+    <t>糟香鸡胗</t>
+  </si>
+  <si>
+    <t>wine_marinated_chicken_hearts</t>
+  </si>
+  <si>
+    <t>Wine-Marinated Chicken Hearts</t>
+  </si>
+  <si>
+    <t>糟香鸡心</t>
+  </si>
+  <si>
+    <t>classic_shanghai_braised_wheat_gluten</t>
+  </si>
+  <si>
+    <t>Classic Shanghai Braised Wheat Gluten</t>
+  </si>
+  <si>
+    <t>经典上海烤麸</t>
+  </si>
+  <si>
+    <t>garlic_honey_chicken_breast</t>
+  </si>
+  <si>
+    <t>Garlic Honey Chicken Breast</t>
+  </si>
+  <si>
+    <t>蒜香蜂蜜烤鸡胸</t>
+  </si>
+  <si>
+    <t>honey_teriyaki_chicken_breast</t>
+  </si>
+  <si>
+    <t>Honey Teriyaki Chicken Breast</t>
+  </si>
+  <si>
+    <t>蜜汁照烧烤鸡胸</t>
+  </si>
+  <si>
+    <t>curry_lemon_chicken_breast</t>
+  </si>
+  <si>
+    <t>Curry Lemon Chicken Breast</t>
+  </si>
+  <si>
+    <t>咖喱柠檬烤鸡胸</t>
+  </si>
+  <si>
+    <t>korean_spicy_chicken_breast</t>
+  </si>
+  <si>
+    <t>Korean Spicy Chicken Breast</t>
+  </si>
+  <si>
+    <t>韩式辣酱烤鸡胸</t>
+  </si>
+  <si>
+    <t>miso_glazed_chicken_breast</t>
+  </si>
+  <si>
+    <t>Miso Glazed Chicken Breast</t>
+  </si>
+  <si>
+    <t>日式味增烤鸡胸</t>
+  </si>
+  <si>
+    <t>new_orleans_spiced_chicken</t>
+  </si>
+  <si>
+    <t>New Orleans Spiced Chicken</t>
+  </si>
+  <si>
+    <t>新奥尔良烤鸡胸</t>
+  </si>
+  <si>
+    <t>garlic_lemon_chicken_breast</t>
+  </si>
+  <si>
+    <t>Garlic Lemon Chicken Breast</t>
+  </si>
+  <si>
+    <t>蒜香柠檬烤鸡胸</t>
+  </si>
+  <si>
+    <t>teriyaki_glazed_chicken_thigh</t>
+  </si>
+  <si>
+    <t>Teriyaki Glazed Chicken Thigh</t>
+  </si>
+  <si>
+    <t>照烧鸡腿排</t>
+  </si>
+  <si>
+    <t>wine_marinated_mix</t>
+  </si>
+  <si>
+    <t>Wine Marinated Mix</t>
+  </si>
+  <si>
+    <t>糟卤三拼</t>
+  </si>
+  <si>
+    <t>chicken_breast_3_mixed_flavors</t>
+  </si>
+  <si>
+    <t>Chicken Breast 3 Mixed flavors</t>
+  </si>
+  <si>
+    <t>鸡胸肉三拼</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -873,14 +1136,7 @@
     </font>
     <font>
       <color rgb="FF212529"/>
-      <name val="Poppins"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -923,8 +1179,33 @@
       <color rgb="FF1F1F1F"/>
       <name val="Monospace"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,12 +1222,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FFF5F5F5"/>
       </patternFill>
     </fill>
     <fill>
@@ -976,7 +1251,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1007,19 +1282,16 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1028,7 +1300,7 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1037,30 +1309,47 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,7 +1671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="31.5" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +2210,7 @@
       <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1935,21 +2224,21 @@
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+    <row r="48" ht="16.5" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1963,658 +2252,669 @@
       <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>113</v>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>155</v>
+      <c r="C57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>159</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="A60" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="13" t="s">
+      <c r="A61" s="17" t="s">
         <v>168</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>157</v>
+      <c r="A63" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>157</v>
+        <v>177</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="A65" s="17" t="s">
         <v>180</v>
       </c>
+      <c r="B65" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>183</v>
       </c>
+      <c r="B66" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>186</v>
       </c>
+      <c r="B67" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>189</v>
       </c>
+      <c r="B68" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>157</v>
+      <c r="A69" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>157</v>
+      <c r="A70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>198</v>
       </c>
+      <c r="B71" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="B72" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="20" t="s">
+      <c r="A73" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="B73" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74">
-      <c r="D74" s="22"/>
+      <c r="A74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="A75" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>208</v>
       </c>
+      <c r="C75" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>211</v>
+      <c r="A76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>115</v>
+        <v>217</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>217</v>
+      <c r="A78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>115</v>
+        <v>235</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>253</v>
+        <v>228</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>255</v>
+        <v>228</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>228</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>259</v>
+        <v>22</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>262</v>
+        <v>87</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97">
@@ -2622,16 +2922,423 @@
         <v>263</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C97" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="B98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" ht="21.75" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="$B$1:$B$998"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>